--- a/data/pca/factorExposure/factorExposure_2011-05-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.006518303779739693</v>
+        <v>0.01409295348030531</v>
       </c>
       <c r="C2">
-        <v>0.01164599678492215</v>
+        <v>-0.004391479069133636</v>
       </c>
       <c r="D2">
-        <v>-0.05274059228014608</v>
+        <v>0.005244642106443511</v>
       </c>
       <c r="E2">
-        <v>0.001494818683511183</v>
+        <v>0.02688335966069654</v>
       </c>
       <c r="F2">
-        <v>0.0006356398073692203</v>
+        <v>0.003533870035151565</v>
       </c>
       <c r="G2">
-        <v>0.03366912343919355</v>
+        <v>-0.01101200300290551</v>
       </c>
       <c r="H2">
-        <v>0.03295873355891247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.03242965458943103</v>
+      </c>
+      <c r="I2">
+        <v>-0.01797432402186445</v>
+      </c>
+      <c r="J2">
+        <v>-0.02244492996173178</v>
+      </c>
+      <c r="K2">
+        <v>0.04043489621613757</v>
+      </c>
+      <c r="L2">
+        <v>-0.02629593929159343</v>
+      </c>
+      <c r="M2">
+        <v>-0.009099223275017703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.08358486614871763</v>
+        <v>0.1098724785910461</v>
       </c>
       <c r="C4">
-        <v>-0.05606960347760887</v>
+        <v>0.07530695051074744</v>
       </c>
       <c r="D4">
-        <v>-0.0296923282234358</v>
+        <v>0.0097285900738128</v>
       </c>
       <c r="E4">
-        <v>0.0328047748400408</v>
+        <v>0.03331354638484044</v>
       </c>
       <c r="F4">
-        <v>-0.02060264580421044</v>
+        <v>-0.1632125419664935</v>
       </c>
       <c r="G4">
-        <v>0.02111085525855708</v>
+        <v>0.01859491143166002</v>
       </c>
       <c r="H4">
-        <v>-0.02746925143010474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.03060891903141674</v>
+      </c>
+      <c r="I4">
+        <v>0.04203644219247477</v>
+      </c>
+      <c r="J4">
+        <v>0.0252114599823058</v>
+      </c>
+      <c r="K4">
+        <v>-0.0825994499881986</v>
+      </c>
+      <c r="L4">
+        <v>-0.02924927730059099</v>
+      </c>
+      <c r="M4">
+        <v>0.07126636422055081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1333210605643823</v>
+        <v>0.1346806910127035</v>
       </c>
       <c r="C6">
-        <v>-0.03771625923990342</v>
+        <v>0.04897575481959106</v>
       </c>
       <c r="D6">
-        <v>-0.04588973903990264</v>
+        <v>0.006432771341410413</v>
       </c>
       <c r="E6">
-        <v>0.06302240622379149</v>
+        <v>-0.01128182082946197</v>
       </c>
       <c r="F6">
-        <v>0.1169866160932191</v>
+        <v>0.01245333207188106</v>
       </c>
       <c r="G6">
-        <v>-0.1410457532715489</v>
+        <v>0.08921626508599069</v>
       </c>
       <c r="H6">
-        <v>-0.07730069511095908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.002578410592203646</v>
+      </c>
+      <c r="I6">
+        <v>0.2925236025625241</v>
+      </c>
+      <c r="J6">
+        <v>0.329147048627637</v>
+      </c>
+      <c r="K6">
+        <v>0.05183765796306766</v>
+      </c>
+      <c r="L6">
+        <v>-0.1763217519396054</v>
+      </c>
+      <c r="M6">
+        <v>-0.03273906927684428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07808127580900949</v>
+        <v>0.06999369005163743</v>
       </c>
       <c r="C7">
-        <v>-0.04859740479559427</v>
+        <v>0.06121030801009018</v>
       </c>
       <c r="D7">
-        <v>-0.04281571810984713</v>
+        <v>0.003725530059299607</v>
       </c>
       <c r="E7">
-        <v>0.04599098667771227</v>
+        <v>0.05684347021583927</v>
       </c>
       <c r="F7">
-        <v>0.03955708373877082</v>
+        <v>-0.03537889118512691</v>
       </c>
       <c r="G7">
-        <v>-0.003208662488461933</v>
+        <v>-0.0002025762917392368</v>
       </c>
       <c r="H7">
-        <v>0.02761131216897603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.0243736103113369</v>
+      </c>
+      <c r="I7">
+        <v>-0.005890186188167905</v>
+      </c>
+      <c r="J7">
+        <v>-0.05524289084746086</v>
+      </c>
+      <c r="K7">
+        <v>-0.1122051363540671</v>
+      </c>
+      <c r="L7">
+        <v>-0.0007737377004448463</v>
+      </c>
+      <c r="M7">
+        <v>-0.04383726012695613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03906229537249845</v>
+        <v>0.04220082460072584</v>
       </c>
       <c r="C8">
-        <v>-0.02408238550277692</v>
+        <v>0.0152880605443432</v>
       </c>
       <c r="D8">
-        <v>-0.05440932758463896</v>
+        <v>0.006225631004848649</v>
       </c>
       <c r="E8">
-        <v>0.04920813815370326</v>
+        <v>0.0157659190292046</v>
       </c>
       <c r="F8">
-        <v>-0.01149970927253418</v>
+        <v>-0.1354197787736743</v>
       </c>
       <c r="G8">
-        <v>0.05977888776048861</v>
+        <v>-0.01385669393097502</v>
       </c>
       <c r="H8">
-        <v>0.05889907020920646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.03634409853900948</v>
+      </c>
+      <c r="I8">
+        <v>0.06872227746956157</v>
+      </c>
+      <c r="J8">
+        <v>0.001400100882911767</v>
+      </c>
+      <c r="K8">
+        <v>-0.06707028952364903</v>
+      </c>
+      <c r="L8">
+        <v>-0.06875837729250169</v>
+      </c>
+      <c r="M8">
+        <v>0.06323124225390056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07785337748296416</v>
+        <v>0.08384713837324015</v>
       </c>
       <c r="C9">
-        <v>-0.05742025641746144</v>
+        <v>0.06351661487615522</v>
       </c>
       <c r="D9">
-        <v>-0.03369468706027152</v>
+        <v>-0.009794990364783183</v>
       </c>
       <c r="E9">
-        <v>0.02403021745027433</v>
+        <v>0.0271200274778852</v>
       </c>
       <c r="F9">
-        <v>-0.006478694850867764</v>
+        <v>-0.1423755240771127</v>
       </c>
       <c r="G9">
-        <v>0.02392775111865944</v>
+        <v>0.02100416452597521</v>
       </c>
       <c r="H9">
-        <v>0.01741419703571052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.002966030184846726</v>
+      </c>
+      <c r="I9">
+        <v>0.01878314571526788</v>
+      </c>
+      <c r="J9">
+        <v>-0.001245795714267359</v>
+      </c>
+      <c r="K9">
+        <v>-0.05243867559866761</v>
+      </c>
+      <c r="L9">
+        <v>-0.03867801066458262</v>
+      </c>
+      <c r="M9">
+        <v>0.006153184440118034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.0461193296439945</v>
+        <v>0.10875733546962</v>
       </c>
       <c r="C10">
-        <v>0.1451452701265322</v>
+        <v>-0.1654702752417021</v>
       </c>
       <c r="D10">
-        <v>-0.07837256620779429</v>
+        <v>0.009141538623309008</v>
       </c>
       <c r="E10">
-        <v>0.03501435066424066</v>
+        <v>0.03522417075521427</v>
       </c>
       <c r="F10">
-        <v>0.03629308376281871</v>
+        <v>0.01355350170175417</v>
       </c>
       <c r="G10">
-        <v>-0.009222212796630942</v>
+        <v>0.02653922663657039</v>
       </c>
       <c r="H10">
-        <v>-0.01430184465262682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.03010572504557442</v>
+      </c>
+      <c r="I10">
+        <v>-0.0219261937923386</v>
+      </c>
+      <c r="J10">
+        <v>0.0143618855589474</v>
+      </c>
+      <c r="K10">
+        <v>3.899283631066158e-05</v>
+      </c>
+      <c r="L10">
+        <v>0.046473385748425</v>
+      </c>
+      <c r="M10">
+        <v>-0.1004516144923285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06715026552673191</v>
+        <v>0.06930377105423427</v>
       </c>
       <c r="C11">
-        <v>-0.06948902832005015</v>
+        <v>0.06784313376198117</v>
       </c>
       <c r="D11">
-        <v>-0.01058018420737833</v>
+        <v>-0.0321417086190466</v>
       </c>
       <c r="E11">
-        <v>-0.01363764510441965</v>
+        <v>0.01023792830154996</v>
       </c>
       <c r="F11">
-        <v>0.01083564234268344</v>
+        <v>-0.1165484092787656</v>
       </c>
       <c r="G11">
-        <v>0.1125309758579431</v>
+        <v>0.004048515435580822</v>
       </c>
       <c r="H11">
-        <v>0.07402428368102727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.0524600612800391</v>
+      </c>
+      <c r="I11">
+        <v>-0.05015896449623106</v>
+      </c>
+      <c r="J11">
+        <v>-0.08507557983031135</v>
+      </c>
+      <c r="K11">
+        <v>0.03577108670554872</v>
+      </c>
+      <c r="L11">
+        <v>-0.03581148219666713</v>
+      </c>
+      <c r="M11">
+        <v>-0.1046181056245439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.06345930023766382</v>
+        <v>0.06771226606984332</v>
       </c>
       <c r="C12">
-        <v>-0.04199884549593976</v>
+        <v>0.0568500120257762</v>
       </c>
       <c r="D12">
-        <v>0.002889549240123312</v>
+        <v>-0.02896949363034331</v>
       </c>
       <c r="E12">
-        <v>0.0290856567276637</v>
+        <v>-0.002110888518255962</v>
       </c>
       <c r="F12">
-        <v>0.02269495948184954</v>
+        <v>-0.1271769094622019</v>
       </c>
       <c r="G12">
-        <v>0.09256630788997275</v>
+        <v>-0.009234846349518001</v>
       </c>
       <c r="H12">
-        <v>0.0899763786063915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.04255975552338888</v>
+      </c>
+      <c r="I12">
+        <v>-0.01309054843084624</v>
+      </c>
+      <c r="J12">
+        <v>-0.08691548995242909</v>
+      </c>
+      <c r="K12">
+        <v>0.02532422023161788</v>
+      </c>
+      <c r="L12">
+        <v>-0.05306678226654704</v>
+      </c>
+      <c r="M12">
+        <v>-0.1174907485840371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05524882384681475</v>
+        <v>0.04481528253178972</v>
       </c>
       <c r="C13">
-        <v>-0.004213587571342817</v>
+        <v>0.03096042893286357</v>
       </c>
       <c r="D13">
-        <v>-0.000791152730344915</v>
+        <v>0.01820607133995536</v>
       </c>
       <c r="E13">
-        <v>0.01832198896039934</v>
+        <v>0.01424761792137603</v>
       </c>
       <c r="F13">
-        <v>-0.04767739904572864</v>
+        <v>-0.04793379734583825</v>
       </c>
       <c r="G13">
-        <v>0.0126675281482645</v>
+        <v>-0.004882084673436983</v>
       </c>
       <c r="H13">
-        <v>0.08588211663663832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.02208057737164596</v>
+      </c>
+      <c r="I13">
+        <v>0.01733780471454114</v>
+      </c>
+      <c r="J13">
+        <v>-0.008861834112576074</v>
+      </c>
+      <c r="K13">
+        <v>-0.04367920687425907</v>
+      </c>
+      <c r="L13">
+        <v>0.01158331165340258</v>
+      </c>
+      <c r="M13">
+        <v>0.02852278446377557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.0548658794656391</v>
+        <v>0.0374844301131446</v>
       </c>
       <c r="C14">
-        <v>-0.02210809023290153</v>
+        <v>0.0211482343618767</v>
       </c>
       <c r="D14">
-        <v>-0.01656027985260218</v>
+        <v>-0.01547926829748858</v>
       </c>
       <c r="E14">
-        <v>0.02817078759018894</v>
+        <v>0.002779326442933386</v>
       </c>
       <c r="F14">
-        <v>0.01322921116573361</v>
+        <v>-0.07011599156480505</v>
       </c>
       <c r="G14">
-        <v>-0.0165595862941894</v>
+        <v>-0.01612081857145077</v>
       </c>
       <c r="H14">
-        <v>0.01825993953749451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.02671460780823039</v>
+      </c>
+      <c r="I14">
+        <v>0.0061822645550994</v>
+      </c>
+      <c r="J14">
+        <v>0.0308956059002862</v>
+      </c>
+      <c r="K14">
+        <v>-0.09137144598613091</v>
+      </c>
+      <c r="L14">
+        <v>-0.04286607082535556</v>
+      </c>
+      <c r="M14">
+        <v>0.02821168920023438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03909718418021339</v>
+        <v>0.02543324124011182</v>
       </c>
       <c r="C15">
-        <v>0.007706980874380565</v>
+        <v>0.01359727818271207</v>
       </c>
       <c r="D15">
-        <v>-0.0001375726339141675</v>
+        <v>0.0534339934151508</v>
       </c>
       <c r="E15">
-        <v>0.02370447328923007</v>
+        <v>0.009804805538869872</v>
       </c>
       <c r="F15">
-        <v>-0.01891424425357729</v>
+        <v>-0.01142449417339994</v>
       </c>
       <c r="G15">
-        <v>-0.01090652768770703</v>
+        <v>0.03573488343991685</v>
       </c>
       <c r="H15">
-        <v>-0.02000813784868052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.01212296640920933</v>
+      </c>
+      <c r="I15">
+        <v>0.003185558255907964</v>
+      </c>
+      <c r="J15">
+        <v>0.04608052339626943</v>
+      </c>
+      <c r="K15">
+        <v>-0.07243408106131745</v>
+      </c>
+      <c r="L15">
+        <v>0.008046300397355648</v>
+      </c>
+      <c r="M15">
+        <v>0.0009682629484966314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06864828056343553</v>
+        <v>0.07290745750690389</v>
       </c>
       <c r="C16">
-        <v>-0.07564885966148321</v>
+        <v>0.07320449077879466</v>
       </c>
       <c r="D16">
-        <v>-0.01869974109398353</v>
+        <v>-0.02250048657215923</v>
       </c>
       <c r="E16">
-        <v>0.02575165054791579</v>
+        <v>0.01424653042715144</v>
       </c>
       <c r="F16">
-        <v>-0.02420332129312463</v>
+        <v>-0.1169891078996901</v>
       </c>
       <c r="G16">
-        <v>0.07724121782571186</v>
+        <v>-0.007525112710783795</v>
       </c>
       <c r="H16">
-        <v>0.07962669630336294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.03261021863426261</v>
+      </c>
+      <c r="I16">
+        <v>-0.03186775276628972</v>
+      </c>
+      <c r="J16">
+        <v>-0.09340416744659998</v>
+      </c>
+      <c r="K16">
+        <v>0.01172405466210722</v>
+      </c>
+      <c r="L16">
+        <v>-0.05138033586975968</v>
+      </c>
+      <c r="M16">
+        <v>-0.1119317907563876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04662807997119896</v>
+        <v>0.04423911404783287</v>
       </c>
       <c r="C20">
-        <v>-0.04073418705692791</v>
+        <v>0.03276427856471761</v>
       </c>
       <c r="D20">
-        <v>-0.009045554904014515</v>
+        <v>0.01851516575285742</v>
       </c>
       <c r="E20">
-        <v>0.009015190823898556</v>
+        <v>0.0202931329778454</v>
       </c>
       <c r="F20">
-        <v>-0.008052191854641651</v>
+        <v>-0.0730296429421273</v>
       </c>
       <c r="G20">
-        <v>0.02528990095032104</v>
+        <v>-0.02353124870306504</v>
       </c>
       <c r="H20">
-        <v>0.05328901989839924</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.01110780379864192</v>
+      </c>
+      <c r="I20">
+        <v>0.02479212606078861</v>
+      </c>
+      <c r="J20">
+        <v>-0.0001016658214040884</v>
+      </c>
+      <c r="K20">
+        <v>-0.06414657062438948</v>
+      </c>
+      <c r="L20">
+        <v>-0.02414862078767178</v>
+      </c>
+      <c r="M20">
+        <v>-0.00573770843170968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02546925562187543</v>
+        <v>0.02315784739541285</v>
       </c>
       <c r="C21">
-        <v>-0.03390836902642348</v>
+        <v>0.02472345518100943</v>
       </c>
       <c r="D21">
-        <v>0.005158526853539254</v>
+        <v>0.004083033876090867</v>
       </c>
       <c r="E21">
-        <v>0.05573453151624663</v>
+        <v>0.01203196652080532</v>
       </c>
       <c r="F21">
-        <v>0.07696884425108298</v>
+        <v>-0.0702607438292749</v>
       </c>
       <c r="G21">
-        <v>-0.02518809082732507</v>
+        <v>0.05296517077818803</v>
       </c>
       <c r="H21">
-        <v>-0.1126350043881681</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.1157717304748519</v>
+      </c>
+      <c r="I21">
+        <v>0.02865195149936574</v>
+      </c>
+      <c r="J21">
+        <v>0.02661966753828279</v>
+      </c>
+      <c r="K21">
+        <v>-0.1287007357839388</v>
+      </c>
+      <c r="L21">
+        <v>0.04934387070354004</v>
+      </c>
+      <c r="M21">
+        <v>-0.03746608237211247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.02487513417599745</v>
+        <v>0.04744854508323282</v>
       </c>
       <c r="C22">
-        <v>-0.042200682166544</v>
+        <v>0.02441742265114096</v>
       </c>
       <c r="D22">
-        <v>0.05034141150285897</v>
+        <v>0.6432576288667831</v>
       </c>
       <c r="E22">
-        <v>0.5306467652595276</v>
+        <v>0.1273357337255182</v>
       </c>
       <c r="F22">
-        <v>-0.2544753502657913</v>
+        <v>0.05486054559192624</v>
       </c>
       <c r="G22">
-        <v>-0.09741923919431639</v>
+        <v>-0.1444830054319787</v>
       </c>
       <c r="H22">
-        <v>-0.2495498127036272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.09384388225511331</v>
+      </c>
+      <c r="I22">
+        <v>-0.009689908460573764</v>
+      </c>
+      <c r="J22">
+        <v>-0.0135281768495497</v>
+      </c>
+      <c r="K22">
+        <v>0.04688195754690587</v>
+      </c>
+      <c r="L22">
+        <v>0.01385056052162149</v>
+      </c>
+      <c r="M22">
+        <v>0.002797630277661682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.02497923190110711</v>
+        <v>0.04788652896803469</v>
       </c>
       <c r="C23">
-        <v>-0.04206967807549378</v>
+        <v>0.02511724744790904</v>
       </c>
       <c r="D23">
-        <v>0.04930213524072768</v>
+        <v>0.6450359976427005</v>
       </c>
       <c r="E23">
-        <v>0.5303238948658423</v>
+        <v>0.1275523798252268</v>
       </c>
       <c r="F23">
-        <v>-0.2547543544446088</v>
+        <v>0.05211553903385918</v>
       </c>
       <c r="G23">
-        <v>-0.09898965324753585</v>
+        <v>-0.1452077852084922</v>
       </c>
       <c r="H23">
-        <v>-0.2492555719337446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.09104347925189353</v>
+      </c>
+      <c r="I23">
+        <v>-0.007056134603568698</v>
+      </c>
+      <c r="J23">
+        <v>-0.01199247257039397</v>
+      </c>
+      <c r="K23">
+        <v>0.04942672796264307</v>
+      </c>
+      <c r="L23">
+        <v>0.01179457625935276</v>
+      </c>
+      <c r="M23">
+        <v>0.001184774975664961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07682690399047105</v>
+        <v>0.07563961368350709</v>
       </c>
       <c r="C24">
-        <v>-0.0621335850130417</v>
+        <v>0.06770074225409159</v>
       </c>
       <c r="D24">
-        <v>-0.01750325855113602</v>
+        <v>-0.01822384843547121</v>
       </c>
       <c r="E24">
-        <v>0.02886777758700271</v>
+        <v>0.02189291421884551</v>
       </c>
       <c r="F24">
-        <v>0.003808522912797817</v>
+        <v>-0.1165780483455008</v>
       </c>
       <c r="G24">
-        <v>0.08168337884079102</v>
+        <v>0.001778033060889311</v>
       </c>
       <c r="H24">
-        <v>0.06699248977875591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.04309480239151649</v>
+      </c>
+      <c r="I24">
+        <v>-0.03435487948238553</v>
+      </c>
+      <c r="J24">
+        <v>-0.08285346348001765</v>
+      </c>
+      <c r="K24">
+        <v>0.0416947982051017</v>
+      </c>
+      <c r="L24">
+        <v>-0.0511515931224597</v>
+      </c>
+      <c r="M24">
+        <v>-0.08996073751782474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06639790368172037</v>
+        <v>0.07510240618670927</v>
       </c>
       <c r="C25">
-        <v>-0.03215167848913347</v>
+        <v>0.04838136026972864</v>
       </c>
       <c r="D25">
-        <v>-0.01795201297255532</v>
+        <v>-0.0355723609820214</v>
       </c>
       <c r="E25">
-        <v>0.02221727268042551</v>
+        <v>0.01040338898939863</v>
       </c>
       <c r="F25">
-        <v>0.007518017534238894</v>
+        <v>-0.1179967622625938</v>
       </c>
       <c r="G25">
-        <v>0.08234637759097295</v>
+        <v>-0.005344167508707259</v>
       </c>
       <c r="H25">
-        <v>0.06997411695039824</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.03095368525425998</v>
+      </c>
+      <c r="I25">
+        <v>-0.03662503731046843</v>
+      </c>
+      <c r="J25">
+        <v>-0.08118791000339172</v>
+      </c>
+      <c r="K25">
+        <v>0.03926622991509073</v>
+      </c>
+      <c r="L25">
+        <v>-0.06184119376000453</v>
+      </c>
+      <c r="M25">
+        <v>-0.103129053938017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.05027386176099849</v>
+        <v>0.04205666179615801</v>
       </c>
       <c r="C26">
-        <v>-0.03947690106547457</v>
+        <v>0.01489751627139615</v>
       </c>
       <c r="D26">
-        <v>-0.03331642435699657</v>
+        <v>0.007530202935206958</v>
       </c>
       <c r="E26">
-        <v>0.0007578338368175774</v>
+        <v>0.007628511209043987</v>
       </c>
       <c r="F26">
-        <v>-0.0177904917783868</v>
+        <v>-0.04980244574564256</v>
       </c>
       <c r="G26">
-        <v>-0.01251765328998058</v>
+        <v>-0.01951840017701107</v>
       </c>
       <c r="H26">
-        <v>0.03050555296469337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01454800173495198</v>
+      </c>
+      <c r="I26">
+        <v>-0.005403213710752568</v>
+      </c>
+      <c r="J26">
+        <v>0.03930624096864362</v>
+      </c>
+      <c r="K26">
+        <v>-0.1172290357663889</v>
+      </c>
+      <c r="L26">
+        <v>0.02455963662841065</v>
+      </c>
+      <c r="M26">
+        <v>-0.03125459566324977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.0911668636933364</v>
+        <v>0.1401825154473628</v>
       </c>
       <c r="C28">
-        <v>0.2924987073674994</v>
+        <v>-0.2877742351653911</v>
       </c>
       <c r="D28">
-        <v>-0.0698201005116916</v>
+        <v>-0.008140111302021353</v>
       </c>
       <c r="E28">
-        <v>0.00826112411781749</v>
+        <v>0.01527763321637588</v>
       </c>
       <c r="F28">
-        <v>0.03481116446292188</v>
+        <v>-0.006532432178730912</v>
       </c>
       <c r="G28">
-        <v>0.005190549485662006</v>
+        <v>0.005156844440075783</v>
       </c>
       <c r="H28">
-        <v>-0.04285210090931467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01483396128070699</v>
+      </c>
+      <c r="I28">
+        <v>0.02078557059109622</v>
+      </c>
+      <c r="J28">
+        <v>-0.01211247548958123</v>
+      </c>
+      <c r="K28">
+        <v>-0.01369302948824452</v>
+      </c>
+      <c r="L28">
+        <v>0.02096341963456057</v>
+      </c>
+      <c r="M28">
+        <v>0.01301043693392301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.0544909328928866</v>
+        <v>0.03863947836646047</v>
       </c>
       <c r="C29">
-        <v>-0.01630744081545795</v>
+        <v>0.02248359214394316</v>
       </c>
       <c r="D29">
-        <v>-0.008353053597174302</v>
+        <v>-0.007920617569309271</v>
       </c>
       <c r="E29">
-        <v>0.03221443065977839</v>
+        <v>0.006574370694846983</v>
       </c>
       <c r="F29">
-        <v>-0.01902603765755112</v>
+        <v>-0.07228943824562237</v>
       </c>
       <c r="G29">
-        <v>-0.009513532243923305</v>
+        <v>-0.02989756862455058</v>
       </c>
       <c r="H29">
-        <v>-0.01580537257323488</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.004788473142205984</v>
+      </c>
+      <c r="I29">
+        <v>0.01589434260414281</v>
+      </c>
+      <c r="J29">
+        <v>0.02719684226795433</v>
+      </c>
+      <c r="K29">
+        <v>-0.09080066043520463</v>
+      </c>
+      <c r="L29">
+        <v>-0.02871905447260251</v>
+      </c>
+      <c r="M29">
+        <v>0.005008350693986224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.121822631334987</v>
+        <v>0.104361398619041</v>
       </c>
       <c r="C30">
-        <v>-0.03989965787277292</v>
+        <v>0.0540280848202839</v>
       </c>
       <c r="D30">
-        <v>-0.04774915598633774</v>
+        <v>9.053115466558594e-05</v>
       </c>
       <c r="E30">
-        <v>0.09865645581518954</v>
+        <v>-0.01531540832049902</v>
       </c>
       <c r="F30">
-        <v>0.06757816693095273</v>
+        <v>-0.2250444193585045</v>
       </c>
       <c r="G30">
-        <v>0.1666966630156996</v>
+        <v>-0.1690463934134258</v>
       </c>
       <c r="H30">
-        <v>0.01253298497647712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1878404639975887</v>
+      </c>
+      <c r="I30">
+        <v>0.1806869726647607</v>
+      </c>
+      <c r="J30">
+        <v>-0.04545176725251169</v>
+      </c>
+      <c r="K30">
+        <v>-0.01189134302838885</v>
+      </c>
+      <c r="L30">
+        <v>-0.09038137844401084</v>
+      </c>
+      <c r="M30">
+        <v>0.5634033311468488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05130884903944533</v>
+        <v>0.0379268331324531</v>
       </c>
       <c r="C31">
-        <v>-0.02058689741781329</v>
+        <v>0.04656091483220055</v>
       </c>
       <c r="D31">
-        <v>0.01134286076710397</v>
+        <v>0.002041221265405407</v>
       </c>
       <c r="E31">
-        <v>0.001712537769980026</v>
+        <v>0.0006300086468418208</v>
       </c>
       <c r="F31">
-        <v>-0.02387396664672283</v>
+        <v>-0.02605076901736844</v>
       </c>
       <c r="G31">
-        <v>-0.03244408370447396</v>
+        <v>-0.0114682582539027</v>
       </c>
       <c r="H31">
-        <v>0.03295250874044336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.04386453895380477</v>
+      </c>
+      <c r="I31">
+        <v>-0.004808066551257877</v>
+      </c>
+      <c r="J31">
+        <v>0.0002369655048476389</v>
+      </c>
+      <c r="K31">
+        <v>-0.02501089780896187</v>
+      </c>
+      <c r="L31">
+        <v>-0.03778072207085945</v>
+      </c>
+      <c r="M31">
+        <v>-0.004414513372781498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02289440786153931</v>
+        <v>0.04378635213878905</v>
       </c>
       <c r="C32">
-        <v>0.01411705774886231</v>
+        <v>0.001395343857480597</v>
       </c>
       <c r="D32">
-        <v>-0.001680693377660156</v>
+        <v>-0.01208265806745926</v>
       </c>
       <c r="E32">
-        <v>0.07584969964252129</v>
+        <v>-0.02885515318535591</v>
       </c>
       <c r="F32">
-        <v>-0.09906516144164663</v>
+        <v>-0.08620309944930833</v>
       </c>
       <c r="G32">
-        <v>0.06263055764256811</v>
+        <v>0.01608787025672631</v>
       </c>
       <c r="H32">
-        <v>0.03731343317278721</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.03070244121400342</v>
+      </c>
+      <c r="I32">
+        <v>-0.04170187702482258</v>
+      </c>
+      <c r="J32">
+        <v>-0.01714461527031267</v>
+      </c>
+      <c r="K32">
+        <v>-0.05898065468390949</v>
+      </c>
+      <c r="L32">
+        <v>-0.01237167701783534</v>
+      </c>
+      <c r="M32">
+        <v>0.128000691421402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1166620309909571</v>
+        <v>0.09547830205781666</v>
       </c>
       <c r="C33">
-        <v>-0.03905405980464153</v>
+        <v>0.05622659637920639</v>
       </c>
       <c r="D33">
-        <v>-0.005678554953948745</v>
+        <v>-0.02293344839915818</v>
       </c>
       <c r="E33">
-        <v>0.01415152834496445</v>
+        <v>0.00592149422387253</v>
       </c>
       <c r="F33">
-        <v>-0.0514608653423414</v>
+        <v>-0.0776246280922373</v>
       </c>
       <c r="G33">
-        <v>0.02845468319745304</v>
+        <v>-0.01946380859095654</v>
       </c>
       <c r="H33">
-        <v>0.04578032430230596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.002456660274167859</v>
+      </c>
+      <c r="I33">
+        <v>-0.01439126834666535</v>
+      </c>
+      <c r="J33">
+        <v>0.01556578650279645</v>
+      </c>
+      <c r="K33">
+        <v>-0.01867471524335079</v>
+      </c>
+      <c r="L33">
+        <v>-0.02437995721375037</v>
+      </c>
+      <c r="M33">
+        <v>0.01774718062681569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05355036852357238</v>
+        <v>0.06231612922320554</v>
       </c>
       <c r="C34">
-        <v>-0.06374406755293362</v>
+        <v>0.05784679615476281</v>
       </c>
       <c r="D34">
-        <v>-0.00409349381694496</v>
+        <v>-0.0273390164952014</v>
       </c>
       <c r="E34">
-        <v>0.007702618128871829</v>
+        <v>0.0090371411782898</v>
       </c>
       <c r="F34">
-        <v>0.001995970514861327</v>
+        <v>-0.107605706174029</v>
       </c>
       <c r="G34">
-        <v>0.05997886801967069</v>
+        <v>-0.002350387536063471</v>
       </c>
       <c r="H34">
-        <v>0.05164670990997592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.02387745688186928</v>
+      </c>
+      <c r="I34">
+        <v>-0.02646201596998517</v>
+      </c>
+      <c r="J34">
+        <v>-0.08533489162953102</v>
+      </c>
+      <c r="K34">
+        <v>-0.0166458362861539</v>
+      </c>
+      <c r="L34">
+        <v>-0.05020711777963312</v>
+      </c>
+      <c r="M34">
+        <v>-0.1025349324077622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04328906147623691</v>
+        <v>0.02342020259109093</v>
       </c>
       <c r="C35">
-        <v>-0.03218796594421685</v>
+        <v>0.02249641595142683</v>
       </c>
       <c r="D35">
-        <v>0.008891258071379513</v>
+        <v>-0.002240842810830967</v>
       </c>
       <c r="E35">
-        <v>0.01411472553648623</v>
+        <v>-0.006720563268336904</v>
       </c>
       <c r="F35">
-        <v>0.01875498132909661</v>
+        <v>-0.0383045881586597</v>
       </c>
       <c r="G35">
-        <v>0.006119943051854424</v>
+        <v>-0.01909273227880299</v>
       </c>
       <c r="H35">
-        <v>0.05473222647790466</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.01938651560748542</v>
+      </c>
+      <c r="I35">
+        <v>0.004593905361176209</v>
+      </c>
+      <c r="J35">
+        <v>-0.04464659398323717</v>
+      </c>
+      <c r="K35">
+        <v>-0.07658462213767962</v>
+      </c>
+      <c r="L35">
+        <v>-0.02608957386483542</v>
+      </c>
+      <c r="M35">
+        <v>-0.001408235906352798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03296993254784418</v>
+        <v>0.02625686012533484</v>
       </c>
       <c r="C36">
-        <v>-0.01635116576651955</v>
+        <v>0.01351471763227154</v>
       </c>
       <c r="D36">
-        <v>-0.02255694987553624</v>
+        <v>0.009968231552768219</v>
       </c>
       <c r="E36">
-        <v>0.0284214546630816</v>
+        <v>0.01289253565620935</v>
       </c>
       <c r="F36">
-        <v>-0.01701069341859732</v>
+        <v>-0.06591999294052493</v>
       </c>
       <c r="G36">
-        <v>0.01232363081742502</v>
+        <v>-0.01342624985502079</v>
       </c>
       <c r="H36">
-        <v>0.05739455904171724</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.010111835697646</v>
+      </c>
+      <c r="I36">
+        <v>0.01200414063674621</v>
+      </c>
+      <c r="J36">
+        <v>0.03281981117778528</v>
+      </c>
+      <c r="K36">
+        <v>-0.03177904813993188</v>
+      </c>
+      <c r="L36">
+        <v>-0.02422290780773344</v>
+      </c>
+      <c r="M36">
+        <v>-0.04305299844359856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04768347395539119</v>
+        <v>0.0278157121994774</v>
       </c>
       <c r="C38">
-        <v>-0.03794142306550188</v>
+        <v>0.04299397084603972</v>
       </c>
       <c r="D38">
-        <v>-0.001905690869018471</v>
+        <v>0.01777339988973106</v>
       </c>
       <c r="E38">
-        <v>0.02330932136204396</v>
+        <v>0.01531392335897558</v>
       </c>
       <c r="F38">
-        <v>-0.03066840738927993</v>
+        <v>0.04869158849750563</v>
       </c>
       <c r="G38">
-        <v>0.03605148770918035</v>
+        <v>-0.05189469677583505</v>
       </c>
       <c r="H38">
-        <v>-0.02881881879383976</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.004465484149972642</v>
+      </c>
+      <c r="I38">
+        <v>-0.006619621827385075</v>
+      </c>
+      <c r="J38">
+        <v>0.005833105317410484</v>
+      </c>
+      <c r="K38">
+        <v>-0.05499950695622653</v>
+      </c>
+      <c r="L38">
+        <v>0.08192403940807416</v>
+      </c>
+      <c r="M38">
+        <v>0.1114501443142567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.1024845490175573</v>
+        <v>0.1056047285029417</v>
       </c>
       <c r="C39">
-        <v>-0.07423994964409923</v>
+        <v>0.08759417406778536</v>
       </c>
       <c r="D39">
-        <v>0.00215080288697763</v>
+        <v>-0.08817777191742948</v>
       </c>
       <c r="E39">
-        <v>0.02117063566352232</v>
+        <v>-0.02279925700285327</v>
       </c>
       <c r="F39">
-        <v>0.003419541737814473</v>
+        <v>-0.1567187874023268</v>
       </c>
       <c r="G39">
-        <v>0.1198816716073034</v>
+        <v>-0.09957974795621607</v>
       </c>
       <c r="H39">
-        <v>0.05833816045184278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.07117593809786925</v>
+      </c>
+      <c r="I39">
+        <v>-0.005945158512576817</v>
+      </c>
+      <c r="J39">
+        <v>-0.2094215444872892</v>
+      </c>
+      <c r="K39">
+        <v>0.07625807917045324</v>
+      </c>
+      <c r="L39">
+        <v>-0.0736192312034409</v>
+      </c>
+      <c r="M39">
+        <v>-0.01511539014230098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04642333032933527</v>
+        <v>0.03267121950253132</v>
       </c>
       <c r="C40">
-        <v>-0.02833453341309438</v>
+        <v>0.05743557632255816</v>
       </c>
       <c r="D40">
-        <v>0.04515162919314133</v>
+        <v>0.0411841528001524</v>
       </c>
       <c r="E40">
-        <v>0.1106509909414451</v>
+        <v>0.009071084728013811</v>
       </c>
       <c r="F40">
-        <v>-0.02680107395033167</v>
+        <v>-0.1094557151574372</v>
       </c>
       <c r="G40">
-        <v>0.1533810937375097</v>
+        <v>0.02616647614933362</v>
       </c>
       <c r="H40">
-        <v>0.159495448056147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.08312703445096765</v>
+      </c>
+      <c r="I40">
+        <v>-0.01011159145034761</v>
+      </c>
+      <c r="J40">
+        <v>0.02506550358933396</v>
+      </c>
+      <c r="K40">
+        <v>-0.05076897092671733</v>
+      </c>
+      <c r="L40">
+        <v>0.09607095297156019</v>
+      </c>
+      <c r="M40">
+        <v>0.09692050666039097</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04324036702322921</v>
+        <v>0.03965634621794405</v>
       </c>
       <c r="C41">
-        <v>-0.03997553764195515</v>
+        <v>0.03497911358733449</v>
       </c>
       <c r="D41">
-        <v>0.0002265715648246524</v>
+        <v>-0.01668330768922827</v>
       </c>
       <c r="E41">
-        <v>-0.009411719152344906</v>
+        <v>-0.003206214657293141</v>
       </c>
       <c r="F41">
-        <v>-0.01390372057104073</v>
+        <v>-0.02453123063496368</v>
       </c>
       <c r="G41">
-        <v>0.02712968977933978</v>
+        <v>-0.02638704176192245</v>
       </c>
       <c r="H41">
-        <v>0.02450310589383105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.002577197765738909</v>
+      </c>
+      <c r="I41">
+        <v>-0.005193750217473851</v>
+      </c>
+      <c r="J41">
+        <v>-0.02631902836275243</v>
+      </c>
+      <c r="K41">
+        <v>-0.05407698254843613</v>
+      </c>
+      <c r="L41">
+        <v>0.005943885246665212</v>
+      </c>
+      <c r="M41">
+        <v>-0.002499119440678675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06226477666007588</v>
+        <v>0.05154613693279902</v>
       </c>
       <c r="C43">
-        <v>-0.03197846696727197</v>
+        <v>0.03767777582546208</v>
       </c>
       <c r="D43">
-        <v>-0.02025138049458341</v>
+        <v>0.01009936143221666</v>
       </c>
       <c r="E43">
-        <v>0.02567417518843573</v>
+        <v>0.01214525928619253</v>
       </c>
       <c r="F43">
-        <v>-0.01741934728826563</v>
+        <v>-0.01424123882804901</v>
       </c>
       <c r="G43">
-        <v>0.008501895251817264</v>
+        <v>-0.05653421361052188</v>
       </c>
       <c r="H43">
-        <v>-0.006780818995302278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01258836643570531</v>
+      </c>
+      <c r="I43">
+        <v>0.02321485164740836</v>
+      </c>
+      <c r="J43">
+        <v>-0.0434240356869979</v>
+      </c>
+      <c r="K43">
+        <v>-0.03558994082585232</v>
+      </c>
+      <c r="L43">
+        <v>-0.01710274270783035</v>
+      </c>
+      <c r="M43">
+        <v>-0.01840022732388534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05268568876582484</v>
+        <v>0.08657671668257019</v>
       </c>
       <c r="C44">
-        <v>-0.01864308109005277</v>
+        <v>0.06416922134167141</v>
       </c>
       <c r="D44">
-        <v>-0.08214860615345984</v>
+        <v>0.06826646105207265</v>
       </c>
       <c r="E44">
-        <v>0.06724766958527088</v>
+        <v>0.07912868377196053</v>
       </c>
       <c r="F44">
-        <v>-0.002740650357545367</v>
+        <v>-0.1770877561605158</v>
       </c>
       <c r="G44">
-        <v>0.1168052288730366</v>
+        <v>-0.01431035925212012</v>
       </c>
       <c r="H44">
-        <v>0.0626281297923417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.03208276571342542</v>
+      </c>
+      <c r="I44">
+        <v>-0.03097569178534861</v>
+      </c>
+      <c r="J44">
+        <v>-0.01011320502115372</v>
+      </c>
+      <c r="K44">
+        <v>-0.05010338000532785</v>
+      </c>
+      <c r="L44">
+        <v>0.05880906959824447</v>
+      </c>
+      <c r="M44">
+        <v>0.0183925704802317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.0402229883815259</v>
+        <v>0.03064759635581707</v>
       </c>
       <c r="C46">
-        <v>-0.05047373257284032</v>
+        <v>0.02810387161180863</v>
       </c>
       <c r="D46">
-        <v>-0.01653509928892756</v>
+        <v>0.03376499161041023</v>
       </c>
       <c r="E46">
-        <v>0.05041917049789233</v>
+        <v>0.0296113761374018</v>
       </c>
       <c r="F46">
-        <v>-0.0202852071043256</v>
+        <v>-0.05535656593019315</v>
       </c>
       <c r="G46">
-        <v>0.007173289814748751</v>
+        <v>-0.01744386530029822</v>
       </c>
       <c r="H46">
-        <v>0.003192583040823416</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.01448414613750256</v>
+      </c>
+      <c r="I46">
+        <v>-0.01971496614912911</v>
+      </c>
+      <c r="J46">
+        <v>0.02754042356191148</v>
+      </c>
+      <c r="K46">
+        <v>-0.1112507886217744</v>
+      </c>
+      <c r="L46">
+        <v>-0.05758542770652145</v>
+      </c>
+      <c r="M46">
+        <v>0.007925790321975245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.03411997659388937</v>
+        <v>0.04218918113082253</v>
       </c>
       <c r="C47">
-        <v>-0.01304782579469256</v>
+        <v>0.02635657002513776</v>
       </c>
       <c r="D47">
-        <v>-0.00341466362933661</v>
+        <v>0.01625018141027708</v>
       </c>
       <c r="E47">
-        <v>0.06561656246669272</v>
+        <v>0.01432814916547513</v>
       </c>
       <c r="F47">
-        <v>-0.02402395765391749</v>
+        <v>-0.03537425979655394</v>
       </c>
       <c r="G47">
-        <v>-0.01022044213890158</v>
+        <v>-0.01001319508125582</v>
       </c>
       <c r="H47">
-        <v>0.0236740308281119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.004906287292655661</v>
+      </c>
+      <c r="I47">
+        <v>0.02001788736518231</v>
+      </c>
+      <c r="J47">
+        <v>0.02348091614351818</v>
+      </c>
+      <c r="K47">
+        <v>-0.05215004769131416</v>
+      </c>
+      <c r="L47">
+        <v>0.004127594213101569</v>
+      </c>
+      <c r="M47">
+        <v>-0.04896285817487647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.04107851992129543</v>
+        <v>0.04235160057412144</v>
       </c>
       <c r="C48">
-        <v>-0.02395647584760375</v>
+        <v>0.01822100271473438</v>
       </c>
       <c r="D48">
-        <v>0.003809418153402896</v>
+        <v>0.00763989570901988</v>
       </c>
       <c r="E48">
-        <v>0.05008704763250853</v>
+        <v>0.006810261189312761</v>
       </c>
       <c r="F48">
-        <v>-0.03140984041840032</v>
+        <v>-0.07185579467954864</v>
       </c>
       <c r="G48">
-        <v>-0.005177584224827895</v>
+        <v>0.01784536971047961</v>
       </c>
       <c r="H48">
-        <v>0.04719820863515403</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.02867659642314115</v>
+      </c>
+      <c r="I48">
+        <v>0.01324632468052316</v>
+      </c>
+      <c r="J48">
+        <v>0.006225493997056823</v>
+      </c>
+      <c r="K48">
+        <v>-0.04290807499668838</v>
+      </c>
+      <c r="L48">
+        <v>-0.04690560165391663</v>
+      </c>
+      <c r="M48">
+        <v>-0.04073015886320472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2302172745886999</v>
+        <v>0.2261855903144056</v>
       </c>
       <c r="C49">
-        <v>-0.1123514360571559</v>
+        <v>0.07071184128633122</v>
       </c>
       <c r="D49">
-        <v>-0.04182834294363107</v>
+        <v>-0.05740104450277669</v>
       </c>
       <c r="E49">
-        <v>-0.02956465575584435</v>
+        <v>0.05834203671184508</v>
       </c>
       <c r="F49">
-        <v>0.1754644733477263</v>
+        <v>0.2305450383006983</v>
       </c>
       <c r="G49">
-        <v>0.0007277309331527508</v>
+        <v>0.108298542108778</v>
       </c>
       <c r="H49">
-        <v>-0.1446741067333642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1804502774672569</v>
+      </c>
+      <c r="I49">
+        <v>-0.08039003826231123</v>
+      </c>
+      <c r="J49">
+        <v>-0.08428219119375105</v>
+      </c>
+      <c r="K49">
+        <v>0.1553701153401644</v>
+      </c>
+      <c r="L49">
+        <v>0.001077841971223155</v>
+      </c>
+      <c r="M49">
+        <v>-0.01088778500267362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05692025565080178</v>
+        <v>0.045274937944417</v>
       </c>
       <c r="C50">
-        <v>-0.02422157262082772</v>
+        <v>0.03328068741083412</v>
       </c>
       <c r="D50">
-        <v>0.007484684420623996</v>
+        <v>-0.0001034995802290889</v>
       </c>
       <c r="E50">
-        <v>0.02437235433896953</v>
+        <v>-0.006697029125115497</v>
       </c>
       <c r="F50">
-        <v>-0.05771543534958593</v>
+        <v>-0.04692367053215211</v>
       </c>
       <c r="G50">
-        <v>-0.03477072819696758</v>
+        <v>-0.03393710789625035</v>
       </c>
       <c r="H50">
-        <v>0.02426534230390641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03081639558988879</v>
+      </c>
+      <c r="I50">
+        <v>0.004622270903793206</v>
+      </c>
+      <c r="J50">
+        <v>0.02443325075059578</v>
+      </c>
+      <c r="K50">
+        <v>-0.03628043683499987</v>
+      </c>
+      <c r="L50">
+        <v>-0.04054955836993346</v>
+      </c>
+      <c r="M50">
+        <v>0.01276507582845158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.0237114442234524</v>
+        <v>0.02509616247542864</v>
       </c>
       <c r="C51">
-        <v>-0.01217407350622491</v>
+        <v>0.003045562755834395</v>
       </c>
       <c r="D51">
-        <v>-0.005449575524917706</v>
+        <v>-0.003315945067612765</v>
       </c>
       <c r="E51">
-        <v>-0.00881359297149782</v>
+        <v>0.01756846123897361</v>
       </c>
       <c r="F51">
-        <v>0.0005558389808945987</v>
+        <v>0.024993699499313</v>
       </c>
       <c r="G51">
-        <v>0.01564241112449562</v>
+        <v>0.0002769217389183903</v>
       </c>
       <c r="H51">
-        <v>-0.01290838387944273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.008009155880025872</v>
+      </c>
+      <c r="I51">
+        <v>0.003273988382284204</v>
+      </c>
+      <c r="J51">
+        <v>-0.05860780553415468</v>
+      </c>
+      <c r="K51">
+        <v>0.03838793071682389</v>
+      </c>
+      <c r="L51">
+        <v>-0.01870754520821472</v>
+      </c>
+      <c r="M51">
+        <v>-0.01479986485217731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.04618661590692649</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.02557424875318656</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.009424893254510062</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02090582486922823</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02147579278532129</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.05201707218988894</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.01268452860301197</v>
+      </c>
+      <c r="I52">
+        <v>-0.03060192609924338</v>
+      </c>
+      <c r="J52">
+        <v>0.04124310909911458</v>
+      </c>
+      <c r="K52">
+        <v>0.03520964660819809</v>
+      </c>
+      <c r="L52">
+        <v>-0.004940250572772929</v>
+      </c>
+      <c r="M52">
+        <v>0.02343033889717734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.170895163945861</v>
+        <v>0.164132510690993</v>
       </c>
       <c r="C53">
-        <v>0.002629413860006458</v>
+        <v>0.04919018010094927</v>
       </c>
       <c r="D53">
-        <v>-0.02031033454245301</v>
+        <v>-0.01061298189840455</v>
       </c>
       <c r="E53">
-        <v>-0.1072029457295748</v>
+        <v>-0.01996361535121398</v>
       </c>
       <c r="F53">
-        <v>-0.2172119249874483</v>
+        <v>0.06620771085110008</v>
       </c>
       <c r="G53">
-        <v>-0.004465382549255146</v>
+        <v>-0.1628271371597055</v>
       </c>
       <c r="H53">
-        <v>0.08560876451417504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1923408682392317</v>
+      </c>
+      <c r="I53">
+        <v>-0.1129994727896638</v>
+      </c>
+      <c r="J53">
+        <v>0.1111787152288074</v>
+      </c>
+      <c r="K53">
+        <v>0.03407954787243055</v>
+      </c>
+      <c r="L53">
+        <v>0.008303691653094135</v>
+      </c>
+      <c r="M53">
+        <v>0.07052678530059632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.0518613481676926</v>
+        <v>0.05595389531394366</v>
       </c>
       <c r="C54">
-        <v>-0.03002959387349578</v>
+        <v>0.0439075979781617</v>
       </c>
       <c r="D54">
-        <v>-0.02372873212132518</v>
+        <v>0.01261279988586415</v>
       </c>
       <c r="E54">
-        <v>0.05025665888768052</v>
+        <v>0.01727116871845356</v>
       </c>
       <c r="F54">
-        <v>-0.02188030912617151</v>
+        <v>-0.1376340082781591</v>
       </c>
       <c r="G54">
-        <v>0.02006743717929379</v>
+        <v>0.02565334366695989</v>
       </c>
       <c r="H54">
-        <v>0.03181470527096517</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.02417643254240657</v>
+      </c>
+      <c r="I54">
+        <v>0.04053646202599307</v>
+      </c>
+      <c r="J54">
+        <v>0.04993530288936146</v>
+      </c>
+      <c r="K54">
+        <v>-0.139552199318726</v>
+      </c>
+      <c r="L54">
+        <v>-0.01338009678184026</v>
+      </c>
+      <c r="M54">
+        <v>-0.03666391175368411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09551152575188722</v>
+        <v>0.08720904867199354</v>
       </c>
       <c r="C55">
-        <v>-0.002495472993163333</v>
+        <v>0.03933587535018532</v>
       </c>
       <c r="D55">
-        <v>-0.01915123448488303</v>
+        <v>-0.03001663482072229</v>
       </c>
       <c r="E55">
-        <v>-0.03510465802364744</v>
+        <v>0.005993342986361223</v>
       </c>
       <c r="F55">
-        <v>-0.1780923871377008</v>
+        <v>0.000647409284118671</v>
       </c>
       <c r="G55">
-        <v>-0.01135233346047967</v>
+        <v>-0.08461633037539473</v>
       </c>
       <c r="H55">
-        <v>0.09169415314204511</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.1344927291932992</v>
+      </c>
+      <c r="I55">
+        <v>-0.07413151259577197</v>
+      </c>
+      <c r="J55">
+        <v>0.05910400729098436</v>
+      </c>
+      <c r="K55">
+        <v>-0.002194420263531542</v>
+      </c>
+      <c r="L55">
+        <v>0.003777175658341878</v>
+      </c>
+      <c r="M55">
+        <v>-0.03699350979526732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1700348500464581</v>
+        <v>0.1538051283959623</v>
       </c>
       <c r="C56">
-        <v>-0.006495121313312688</v>
+        <v>0.0648113104284057</v>
       </c>
       <c r="D56">
-        <v>-0.02000003972951195</v>
+        <v>-0.03639926625963128</v>
       </c>
       <c r="E56">
-        <v>-0.09642723728474943</v>
+        <v>0.01572486654304224</v>
       </c>
       <c r="F56">
-        <v>-0.2249242730701358</v>
+        <v>0.0417271642743252</v>
       </c>
       <c r="G56">
-        <v>-0.04167582879790265</v>
+        <v>-0.1552657956828961</v>
       </c>
       <c r="H56">
-        <v>0.0860611072793533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1741913748426607</v>
+      </c>
+      <c r="I56">
+        <v>-0.1097469625323919</v>
+      </c>
+      <c r="J56">
+        <v>0.09046903228762603</v>
+      </c>
+      <c r="K56">
+        <v>0.03049790602379097</v>
+      </c>
+      <c r="L56">
+        <v>0.04094288993612268</v>
+      </c>
+      <c r="M56">
+        <v>0.01571850506433973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02315733725930465</v>
+        <v>0.04335334866101956</v>
       </c>
       <c r="C58">
-        <v>-0.04532811096260951</v>
+        <v>0.03638224330035063</v>
       </c>
       <c r="D58">
-        <v>0.02753942814203954</v>
+        <v>0.08424499959835471</v>
       </c>
       <c r="E58">
-        <v>0.4012143402453578</v>
+        <v>0.01480926264905571</v>
       </c>
       <c r="F58">
-        <v>0.3292313992511148</v>
+        <v>-0.03869086457971524</v>
       </c>
       <c r="G58">
-        <v>-0.2056148380582474</v>
+        <v>-0.04147118611407252</v>
       </c>
       <c r="H58">
-        <v>0.6718560933518446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1471135222654349</v>
+      </c>
+      <c r="I58">
+        <v>0.0796058231185673</v>
+      </c>
+      <c r="J58">
+        <v>-0.1837346704164193</v>
+      </c>
+      <c r="K58">
+        <v>-0.04181787771652295</v>
+      </c>
+      <c r="L58">
+        <v>-0.3909670294747962</v>
+      </c>
+      <c r="M58">
+        <v>-0.1385607722894264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.1923147049380584</v>
+        <v>0.2180498028868296</v>
       </c>
       <c r="C59">
-        <v>0.4087651224842846</v>
+        <v>-0.2971189181628981</v>
       </c>
       <c r="D59">
-        <v>-0.08577145359620035</v>
+        <v>-0.04311104090860259</v>
       </c>
       <c r="E59">
-        <v>-0.0005083324428247419</v>
+        <v>0.001554104209731569</v>
       </c>
       <c r="F59">
-        <v>-0.04524208389296669</v>
+        <v>-0.02224265088996358</v>
       </c>
       <c r="G59">
-        <v>0.08099238561219722</v>
+        <v>0.007003937468677101</v>
       </c>
       <c r="H59">
-        <v>0.01241090581416403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.1275714234803796</v>
+      </c>
+      <c r="I59">
+        <v>-0.02329059967719346</v>
+      </c>
+      <c r="J59">
+        <v>-0.0507444032701842</v>
+      </c>
+      <c r="K59">
+        <v>0.07301553553284931</v>
+      </c>
+      <c r="L59">
+        <v>0.09456019382460014</v>
+      </c>
+      <c r="M59">
+        <v>0.02383027440133066</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2666279843055001</v>
+        <v>0.2433748609042171</v>
       </c>
       <c r="C60">
-        <v>-0.06440844360290029</v>
+        <v>0.1168471127879599</v>
       </c>
       <c r="D60">
-        <v>-0.08096674008628904</v>
+        <v>-0.06875707731741409</v>
       </c>
       <c r="E60">
-        <v>-0.02328487612178181</v>
+        <v>0.04548685651798288</v>
       </c>
       <c r="F60">
-        <v>0.07138575798145182</v>
+        <v>0.1359250029049831</v>
       </c>
       <c r="G60">
-        <v>-0.05973580734170573</v>
+        <v>0.03737764933275763</v>
       </c>
       <c r="H60">
-        <v>-0.1667992433883758</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.07214919599632173</v>
+      </c>
+      <c r="I60">
+        <v>0.05006108606987004</v>
+      </c>
+      <c r="J60">
+        <v>0.09776943231279733</v>
+      </c>
+      <c r="K60">
+        <v>0.2441042948864955</v>
+      </c>
+      <c r="L60">
+        <v>-0.03037844034710206</v>
+      </c>
+      <c r="M60">
+        <v>0.08200544001087855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08893468449505601</v>
+        <v>0.1032715884573004</v>
       </c>
       <c r="C61">
-        <v>-0.04550640182328979</v>
+        <v>0.05836698996008667</v>
       </c>
       <c r="D61">
-        <v>-0.007264547235491015</v>
+        <v>-0.05158761549469437</v>
       </c>
       <c r="E61">
-        <v>-0.007202750946729888</v>
+        <v>0.004188575298727485</v>
       </c>
       <c r="F61">
-        <v>-0.008472810834930674</v>
+        <v>-0.1381536467270832</v>
       </c>
       <c r="G61">
-        <v>0.0454623119056171</v>
+        <v>-0.09473200047516783</v>
       </c>
       <c r="H61">
-        <v>0.02281873135615997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.0159061361339253</v>
+      </c>
+      <c r="I61">
+        <v>-0.02702007952268523</v>
+      </c>
+      <c r="J61">
+        <v>-0.1122851435492163</v>
+      </c>
+      <c r="K61">
+        <v>-0.008279393972663345</v>
+      </c>
+      <c r="L61">
+        <v>-0.04057083404599088</v>
+      </c>
+      <c r="M61">
+        <v>-0.01014131179419442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1567985481251986</v>
+        <v>0.1449366119577922</v>
       </c>
       <c r="C62">
-        <v>-0.02623068525377834</v>
+        <v>0.06548927674190794</v>
       </c>
       <c r="D62">
-        <v>0.02114216324547123</v>
+        <v>-0.03264761115671382</v>
       </c>
       <c r="E62">
-        <v>-0.1681984448592729</v>
+        <v>-0.01848377382683654</v>
       </c>
       <c r="F62">
-        <v>-0.1999324255547528</v>
+        <v>0.05285340908734441</v>
       </c>
       <c r="G62">
-        <v>0.01803847830395242</v>
+        <v>-0.1065475423782605</v>
       </c>
       <c r="H62">
-        <v>0.07083265342786602</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1545003009919794</v>
+      </c>
+      <c r="I62">
+        <v>-0.1359720091434316</v>
+      </c>
+      <c r="J62">
+        <v>0.1372249132618023</v>
+      </c>
+      <c r="K62">
+        <v>-0.01267091865951546</v>
+      </c>
+      <c r="L62">
+        <v>0.04197206927640169</v>
+      </c>
+      <c r="M62">
+        <v>-0.0380489344027357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03832856428105594</v>
+        <v>0.04357918243669744</v>
       </c>
       <c r="C63">
-        <v>-0.02988753599559629</v>
+        <v>0.02614775017294528</v>
       </c>
       <c r="D63">
-        <v>0.004089959751167433</v>
+        <v>-0.004211781580404776</v>
       </c>
       <c r="E63">
-        <v>0.0003871562816594269</v>
+        <v>-0.01582342687155073</v>
       </c>
       <c r="F63">
-        <v>-0.01089236692752003</v>
+        <v>-0.07085914639016663</v>
       </c>
       <c r="G63">
-        <v>-0.001102776520280857</v>
+        <v>-0.001933751482379304</v>
       </c>
       <c r="H63">
-        <v>0.02969536615110783</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.009579549330568451</v>
+      </c>
+      <c r="I63">
+        <v>0.00811525546952358</v>
+      </c>
+      <c r="J63">
+        <v>-0.006434090363710896</v>
+      </c>
+      <c r="K63">
+        <v>-0.03080200660675718</v>
+      </c>
+      <c r="L63">
+        <v>-0.0490196116771652</v>
+      </c>
+      <c r="M63">
+        <v>-0.02103518413978514</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1078322838688882</v>
+        <v>0.100159804311149</v>
       </c>
       <c r="C64">
-        <v>-0.02944790472899352</v>
+        <v>0.04722194164616308</v>
       </c>
       <c r="D64">
-        <v>-0.0394540514252887</v>
+        <v>-0.0006143792686336866</v>
       </c>
       <c r="E64">
-        <v>0.0350621223788796</v>
+        <v>0.03383815120109046</v>
       </c>
       <c r="F64">
-        <v>0.03171835120581967</v>
+        <v>-0.08129405056947407</v>
       </c>
       <c r="G64">
-        <v>0.07006816939665776</v>
+        <v>-0.02723155331086903</v>
       </c>
       <c r="H64">
-        <v>-0.03945428936606587</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.08191142673635976</v>
+      </c>
+      <c r="I64">
+        <v>0.04467712349061215</v>
+      </c>
+      <c r="J64">
+        <v>-0.0285653797230417</v>
+      </c>
+      <c r="K64">
+        <v>0.01973444967765527</v>
+      </c>
+      <c r="L64">
+        <v>0.01291839571665574</v>
+      </c>
+      <c r="M64">
+        <v>0.05851042059986318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1308892257080048</v>
+        <v>0.1244027411866228</v>
       </c>
       <c r="C65">
-        <v>-0.04314303420467626</v>
+        <v>0.04625537656970435</v>
       </c>
       <c r="D65">
-        <v>-0.03260770124039778</v>
+        <v>-0.00635673814447159</v>
       </c>
       <c r="E65">
-        <v>0.09509055825170508</v>
+        <v>-0.03350754567505906</v>
       </c>
       <c r="F65">
-        <v>0.1691265592996813</v>
+        <v>0.02836977113992532</v>
       </c>
       <c r="G65">
-        <v>-0.3145098577078176</v>
+        <v>0.0885574572824997</v>
       </c>
       <c r="H65">
-        <v>-0.02818538080036926</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.05362453664117504</v>
+      </c>
+      <c r="I65">
+        <v>0.3805792995264557</v>
+      </c>
+      <c r="J65">
+        <v>0.5074939114780855</v>
+      </c>
+      <c r="K65">
+        <v>0.1093104030377488</v>
+      </c>
+      <c r="L65">
+        <v>-0.3205906173536453</v>
+      </c>
+      <c r="M65">
+        <v>0.03088404141996055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1639426825841062</v>
+        <v>0.1353759219777652</v>
       </c>
       <c r="C66">
-        <v>-0.09603188950070599</v>
+        <v>0.1183462731077362</v>
       </c>
       <c r="D66">
-        <v>0.007815213925157658</v>
+        <v>-0.1018807710147507</v>
       </c>
       <c r="E66">
-        <v>-0.02176901504291286</v>
+        <v>-0.04024551731841108</v>
       </c>
       <c r="F66">
-        <v>-0.001472934473469584</v>
+        <v>-0.159997563229784</v>
       </c>
       <c r="G66">
-        <v>0.2391295840177051</v>
+        <v>-0.1177877101942812</v>
       </c>
       <c r="H66">
-        <v>0.1135588523637823</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.08594099585135097</v>
+      </c>
+      <c r="I66">
+        <v>-0.06181223297545688</v>
+      </c>
+      <c r="J66">
+        <v>-0.2078621517291381</v>
+      </c>
+      <c r="K66">
+        <v>0.1389549436985744</v>
+      </c>
+      <c r="L66">
+        <v>-0.02261100688437654</v>
+      </c>
+      <c r="M66">
+        <v>0.08590475587012253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.09086609158794566</v>
+        <v>0.07560283212004419</v>
       </c>
       <c r="C67">
-        <v>-0.05339973155916916</v>
+        <v>0.04896059497139429</v>
       </c>
       <c r="D67">
-        <v>-0.02216521684336635</v>
+        <v>0.017211948174931</v>
       </c>
       <c r="E67">
-        <v>0.001064700814914898</v>
+        <v>0.02264288752934423</v>
       </c>
       <c r="F67">
-        <v>-0.02997923092646186</v>
+        <v>0.04754936652085202</v>
       </c>
       <c r="G67">
-        <v>0.0389363236329934</v>
+        <v>-0.06338379458308714</v>
       </c>
       <c r="H67">
-        <v>-0.03917110065549543</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.03490272809358185</v>
+      </c>
+      <c r="I67">
+        <v>8.43629314636122e-05</v>
+      </c>
+      <c r="J67">
+        <v>-0.02759665755867739</v>
+      </c>
+      <c r="K67">
+        <v>0.003912283014653076</v>
+      </c>
+      <c r="L67">
+        <v>0.1358329992486398</v>
+      </c>
+      <c r="M67">
+        <v>0.08534704775375236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.06995078680053349</v>
+        <v>0.1181548839057765</v>
       </c>
       <c r="C68">
-        <v>0.2911553579948137</v>
+        <v>-0.2716780307636347</v>
       </c>
       <c r="D68">
-        <v>-0.02945920970595867</v>
+        <v>-0.004972126044157268</v>
       </c>
       <c r="E68">
-        <v>0.02948732603551059</v>
+        <v>-0.01368422622376909</v>
       </c>
       <c r="F68">
-        <v>-0.02713508513754087</v>
+        <v>-0.04171183001487738</v>
       </c>
       <c r="G68">
-        <v>-0.03190013389433014</v>
+        <v>-0.02018807729636494</v>
       </c>
       <c r="H68">
-        <v>0.03726797574570656</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.009166266468953578</v>
+      </c>
+      <c r="I68">
+        <v>0.01722342332415979</v>
+      </c>
+      <c r="J68">
+        <v>0.03569789899162967</v>
+      </c>
+      <c r="K68">
+        <v>-0.001461014599582891</v>
+      </c>
+      <c r="L68">
+        <v>-0.04394958057659239</v>
+      </c>
+      <c r="M68">
+        <v>0.0006362043656790739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03296225255358825</v>
+        <v>0.04123307092001591</v>
       </c>
       <c r="C69">
-        <v>-0.01779024561971348</v>
+        <v>0.008943958275477375</v>
       </c>
       <c r="D69">
-        <v>-0.006319740785888216</v>
+        <v>0.004054137660412784</v>
       </c>
       <c r="E69">
-        <v>0.007241155953720863</v>
+        <v>-0.005075361157326686</v>
       </c>
       <c r="F69">
-        <v>-0.02765645605547172</v>
+        <v>-0.02050197771523678</v>
       </c>
       <c r="G69">
-        <v>0.03501508891120702</v>
+        <v>-0.04230960371004416</v>
       </c>
       <c r="H69">
-        <v>0.01698779584800835</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.002897876986103539</v>
+      </c>
+      <c r="I69">
+        <v>0.01574617561736192</v>
+      </c>
+      <c r="J69">
+        <v>-0.005198484551153797</v>
+      </c>
+      <c r="K69">
+        <v>-0.02178827420886372</v>
+      </c>
+      <c r="L69">
+        <v>-0.00529038358576782</v>
+      </c>
+      <c r="M69">
+        <v>-0.03890625667272996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.06318437197420994</v>
+        <v>0.05300820276630357</v>
       </c>
       <c r="C70">
-        <v>-0.0139055341478339</v>
+        <v>0.02014716758473689</v>
       </c>
       <c r="D70">
-        <v>-0.03603499498112276</v>
+        <v>-0.02917434600775685</v>
       </c>
       <c r="E70">
-        <v>-0.004086707837120036</v>
+        <v>0.01155960325767361</v>
       </c>
       <c r="F70">
-        <v>0.07951349454940408</v>
+        <v>-0.03774386306321571</v>
       </c>
       <c r="G70">
-        <v>-0.04253316658747154</v>
+        <v>0.007653936867530663</v>
       </c>
       <c r="H70">
-        <v>-0.06693282529073317</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.0253004526917944</v>
+      </c>
+      <c r="I70">
+        <v>0.1043919956788563</v>
+      </c>
+      <c r="J70">
+        <v>0.05518440296341521</v>
+      </c>
+      <c r="K70">
+        <v>-0.316124564500729</v>
+      </c>
+      <c r="L70">
+        <v>0.1461497138926741</v>
+      </c>
+      <c r="M70">
+        <v>0.1469035232432673</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.07972937970606035</v>
+        <v>0.1332065632262378</v>
       </c>
       <c r="C71">
-        <v>0.2855869461437955</v>
+        <v>-0.2857634577985599</v>
       </c>
       <c r="D71">
-        <v>-0.06009718362824024</v>
+        <v>-0.01156677022100477</v>
       </c>
       <c r="E71">
-        <v>0.01414317279701907</v>
+        <v>0.003760403170168552</v>
       </c>
       <c r="F71">
-        <v>0.00478795550275404</v>
+        <v>-0.03362200980822518</v>
       </c>
       <c r="G71">
-        <v>-0.01488387598220246</v>
+        <v>-0.03729055534769687</v>
       </c>
       <c r="H71">
-        <v>0.01978745369790291</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.01757440341150774</v>
+      </c>
+      <c r="I71">
+        <v>0.01097165545817537</v>
+      </c>
+      <c r="J71">
+        <v>0.002928791369633081</v>
+      </c>
+      <c r="K71">
+        <v>0.01064888950362994</v>
+      </c>
+      <c r="L71">
+        <v>-0.0325006009657287</v>
+      </c>
+      <c r="M71">
+        <v>0.001743408231052683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1728602734051026</v>
+        <v>0.1497694239104654</v>
       </c>
       <c r="C72">
-        <v>0.006174937349516844</v>
+        <v>0.03067196169552501</v>
       </c>
       <c r="D72">
-        <v>0.2360962246437779</v>
+        <v>0.01637934723453007</v>
       </c>
       <c r="E72">
-        <v>-0.02720783285146534</v>
+        <v>-0.1450894870001208</v>
       </c>
       <c r="F72">
-        <v>-0.0278387936605181</v>
+        <v>-0.01260570796778533</v>
       </c>
       <c r="G72">
-        <v>0.04679167910352382</v>
+        <v>-0.03183242510195148</v>
       </c>
       <c r="H72">
-        <v>-0.01732951728822068</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.02833274070570752</v>
+      </c>
+      <c r="I72">
+        <v>-0.003533427832588561</v>
+      </c>
+      <c r="J72">
+        <v>0.1097277302095907</v>
+      </c>
+      <c r="K72">
+        <v>0.1043599069076218</v>
+      </c>
+      <c r="L72">
+        <v>0.009120379765283394</v>
+      </c>
+      <c r="M72">
+        <v>-0.01272189124652403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2870293064970163</v>
+        <v>0.241561622132225</v>
       </c>
       <c r="C73">
-        <v>-0.1567539546761169</v>
+        <v>0.1344543557748187</v>
       </c>
       <c r="D73">
-        <v>-0.08947425671616779</v>
+        <v>-0.153818134702114</v>
       </c>
       <c r="E73">
-        <v>-0.06362245385633485</v>
+        <v>0.114706197523897</v>
       </c>
       <c r="F73">
-        <v>0.2566182615719659</v>
+        <v>0.4703387090625302</v>
       </c>
       <c r="G73">
-        <v>-0.1322512427188106</v>
+        <v>-0.005678070063672619</v>
       </c>
       <c r="H73">
-        <v>-0.01934822150342779</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2914001059163052</v>
+      </c>
+      <c r="I73">
+        <v>0.06133802387026499</v>
+      </c>
+      <c r="J73">
+        <v>-0.2424793809739484</v>
+      </c>
+      <c r="K73">
+        <v>0.1977705422431803</v>
+      </c>
+      <c r="L73">
+        <v>-0.08198609623116769</v>
+      </c>
+      <c r="M73">
+        <v>0.04040010804596148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09669423772081047</v>
+        <v>0.1028164726023804</v>
       </c>
       <c r="C74">
-        <v>-0.03415237941828412</v>
+        <v>0.07251876951859282</v>
       </c>
       <c r="D74">
-        <v>-0.006435219217850252</v>
+        <v>-0.0107424850422615</v>
       </c>
       <c r="E74">
-        <v>-0.03498528951306559</v>
+        <v>-0.009614515355472615</v>
       </c>
       <c r="F74">
-        <v>-0.1029798945927186</v>
+        <v>0.04027364946049245</v>
       </c>
       <c r="G74">
-        <v>-0.04480387836062373</v>
+        <v>-0.1356434831503638</v>
       </c>
       <c r="H74">
-        <v>0.06713746171338035</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.06121860792183736</v>
+      </c>
+      <c r="I74">
+        <v>-0.05269960412592128</v>
+      </c>
+      <c r="J74">
+        <v>0.03477121966505246</v>
+      </c>
+      <c r="K74">
+        <v>0.008609290964841068</v>
+      </c>
+      <c r="L74">
+        <v>-0.003119783444573761</v>
+      </c>
+      <c r="M74">
+        <v>-0.01298135709215938</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09744457755655191</v>
+        <v>0.09971912460440674</v>
       </c>
       <c r="C75">
-        <v>-0.01751312398492597</v>
+        <v>0.05440548710683044</v>
       </c>
       <c r="D75">
-        <v>-0.0007162572106065031</v>
+        <v>-0.007231680917693098</v>
       </c>
       <c r="E75">
-        <v>-0.04782602811543243</v>
+        <v>-0.003874819182146558</v>
       </c>
       <c r="F75">
-        <v>-0.1251780618071032</v>
+        <v>0.03270324599241591</v>
       </c>
       <c r="G75">
-        <v>-0.03751581215002931</v>
+        <v>-0.057699109599766</v>
       </c>
       <c r="H75">
-        <v>0.0320349762361937</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.1170092365099193</v>
+      </c>
+      <c r="I75">
+        <v>-0.04794675593217103</v>
+      </c>
+      <c r="J75">
+        <v>0.05444949966453974</v>
+      </c>
+      <c r="K75">
+        <v>0.01738956807019811</v>
+      </c>
+      <c r="L75">
+        <v>0.01537414037480251</v>
+      </c>
+      <c r="M75">
+        <v>-0.05555403771960923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1377706079027332</v>
+        <v>0.07467547517252827</v>
       </c>
       <c r="C76">
-        <v>-0.02938461665717669</v>
+        <v>0.04842800058716902</v>
       </c>
       <c r="D76">
-        <v>-0.01729053482592812</v>
+        <v>-0.006447690000579257</v>
       </c>
       <c r="E76">
-        <v>-0.03746476065951915</v>
+        <v>0.01672333902849659</v>
       </c>
       <c r="F76">
-        <v>-0.2323595320247854</v>
+        <v>0.06651446552461901</v>
       </c>
       <c r="G76">
-        <v>-0.05472940792186092</v>
+        <v>-0.09436615466875045</v>
       </c>
       <c r="H76">
-        <v>0.06000869835089172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1710210559787898</v>
+      </c>
+      <c r="I76">
+        <v>-0.06525433878583239</v>
+      </c>
+      <c r="J76">
+        <v>0.009376271331480668</v>
+      </c>
+      <c r="K76">
+        <v>-0.03103720806092083</v>
+      </c>
+      <c r="L76">
+        <v>0.003536725516768275</v>
+      </c>
+      <c r="M76">
+        <v>0.02498859226098743</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07711120640537138</v>
+        <v>0.07024618441948367</v>
       </c>
       <c r="C77">
-        <v>-0.02887801796217504</v>
+        <v>0.03040493069605345</v>
       </c>
       <c r="D77">
-        <v>-0.03018679658237099</v>
+        <v>-0.02875250563480704</v>
       </c>
       <c r="E77">
-        <v>0.1056323391908885</v>
+        <v>0.04024962156035724</v>
       </c>
       <c r="F77">
-        <v>0.235100291278079</v>
+        <v>-0.2462391170006707</v>
       </c>
       <c r="G77">
-        <v>0.6230853192855426</v>
+        <v>0.08121790615794375</v>
       </c>
       <c r="H77">
-        <v>-0.2029995051473084</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.150021365983308</v>
+      </c>
+      <c r="I77">
+        <v>0.2430314402036293</v>
+      </c>
+      <c r="J77">
+        <v>0.0249815760410228</v>
+      </c>
+      <c r="K77">
+        <v>0.3534896852485746</v>
+      </c>
+      <c r="L77">
+        <v>0.594547670980761</v>
+      </c>
+      <c r="M77">
+        <v>-0.02755809680820106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1826230164141996</v>
+        <v>0.1518777769633675</v>
       </c>
       <c r="C78">
-        <v>-0.09673754463043004</v>
+        <v>0.1119306154082075</v>
       </c>
       <c r="D78">
-        <v>-0.04422923898030358</v>
+        <v>0.1783272079142518</v>
       </c>
       <c r="E78">
-        <v>0.2063557073759471</v>
+        <v>0.1443395097214384</v>
       </c>
       <c r="F78">
-        <v>-0.02078119861440308</v>
+        <v>-0.1327142083716391</v>
       </c>
       <c r="G78">
-        <v>0.08821351190925621</v>
+        <v>0.6202638517912399</v>
       </c>
       <c r="H78">
-        <v>-0.1134713893076428</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5356757113736131</v>
+      </c>
+      <c r="I78">
+        <v>0.05465772903761152</v>
+      </c>
+      <c r="J78">
+        <v>-0.236844559667658</v>
+      </c>
+      <c r="K78">
+        <v>0.1938046949415532</v>
+      </c>
+      <c r="L78">
+        <v>-0.1029322559035093</v>
+      </c>
+      <c r="M78">
+        <v>0.1136950567289436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1357721742106455</v>
+        <v>0.1357851831383757</v>
       </c>
       <c r="C79">
-        <v>-0.02944952961382317</v>
+        <v>0.06913421684588593</v>
       </c>
       <c r="D79">
-        <v>-9.304865552550189e-05</v>
+        <v>-0.00451712991340125</v>
       </c>
       <c r="E79">
-        <v>-0.06758308523302478</v>
+        <v>-0.0003550331997046946</v>
       </c>
       <c r="F79">
-        <v>-0.1613700432906975</v>
+        <v>0.004298533180597949</v>
       </c>
       <c r="G79">
-        <v>-0.007300701042800733</v>
+        <v>-0.1224117388771082</v>
       </c>
       <c r="H79">
-        <v>0.06449297054224197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.1152168021881871</v>
+      </c>
+      <c r="I79">
+        <v>-0.09715881666082019</v>
+      </c>
+      <c r="J79">
+        <v>0.09046046134473035</v>
+      </c>
+      <c r="K79">
+        <v>0.0161971596552349</v>
+      </c>
+      <c r="L79">
+        <v>0.01332713900920978</v>
+      </c>
+      <c r="M79">
+        <v>-0.0390214298036923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.03546772554971576</v>
+        <v>0.06083090441338675</v>
       </c>
       <c r="C80">
-        <v>-0.01230582527932164</v>
+        <v>0.03297559696911745</v>
       </c>
       <c r="D80">
-        <v>-0.01224958755898012</v>
+        <v>-0.06937549131138285</v>
       </c>
       <c r="E80">
-        <v>-0.03133572842197467</v>
+        <v>-0.001090215736555041</v>
       </c>
       <c r="F80">
-        <v>0.01357905976163842</v>
+        <v>-0.04135738678581095</v>
       </c>
       <c r="G80">
-        <v>-0.01130627792782292</v>
+        <v>-0.002811385244284893</v>
       </c>
       <c r="H80">
-        <v>-0.00362599957029793</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.01665513071872866</v>
+      </c>
+      <c r="I80">
+        <v>0.06896884636912942</v>
+      </c>
+      <c r="J80">
+        <v>0.009939599698547838</v>
+      </c>
+      <c r="K80">
+        <v>-0.1684452169466595</v>
+      </c>
+      <c r="L80">
+        <v>-0.09937423828755662</v>
+      </c>
+      <c r="M80">
+        <v>-0.004786073348154931</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1054903477571189</v>
+        <v>0.123950324142548</v>
       </c>
       <c r="C81">
-        <v>-0.03061326468620599</v>
+        <v>0.0623690778781955</v>
       </c>
       <c r="D81">
-        <v>-0.01456755732015184</v>
+        <v>-0.002391571453486806</v>
       </c>
       <c r="E81">
-        <v>-0.07854008136193012</v>
+        <v>0.001901420264590122</v>
       </c>
       <c r="F81">
-        <v>-0.1215691613746631</v>
+        <v>-0.008935267485024455</v>
       </c>
       <c r="G81">
-        <v>-0.01008281858339041</v>
+        <v>-0.07369340039674607</v>
       </c>
       <c r="H81">
-        <v>-0.02448714874478175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.09839825143135246</v>
+      </c>
+      <c r="I81">
+        <v>-0.09060994109959658</v>
+      </c>
+      <c r="J81">
+        <v>0.0502869213373121</v>
+      </c>
+      <c r="K81">
+        <v>0.01207890338909271</v>
+      </c>
+      <c r="L81">
+        <v>0.01566533428721362</v>
+      </c>
+      <c r="M81">
+        <v>-0.05805978703686571</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1171915770190302</v>
+        <v>0.1305015597380903</v>
       </c>
       <c r="C82">
-        <v>-0.02965062046037564</v>
+        <v>0.05451169006647204</v>
       </c>
       <c r="D82">
-        <v>-0.06543454146938002</v>
+        <v>-0.02551950741808406</v>
       </c>
       <c r="E82">
-        <v>-0.09819438652360342</v>
+        <v>0.002145445443735393</v>
       </c>
       <c r="F82">
-        <v>-0.2351412685290751</v>
+        <v>0.02313643527446002</v>
       </c>
       <c r="G82">
-        <v>-0.001232369325267287</v>
+        <v>-0.1819729350842369</v>
       </c>
       <c r="H82">
-        <v>0.1220394776263277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1446876216115824</v>
+      </c>
+      <c r="I82">
+        <v>-0.1581615288669355</v>
+      </c>
+      <c r="J82">
+        <v>0.03959267246488581</v>
+      </c>
+      <c r="K82">
+        <v>-0.066270709301625</v>
+      </c>
+      <c r="L82">
+        <v>0.06272806057653936</v>
+      </c>
+      <c r="M82">
+        <v>-0.05590787360554598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.07908708018987524</v>
+        <v>0.08775084130396314</v>
       </c>
       <c r="C83">
-        <v>-0.06361662673244994</v>
+        <v>0.1040929128333469</v>
       </c>
       <c r="D83">
-        <v>-0.04638064946292352</v>
+        <v>-0.03549141291776939</v>
       </c>
       <c r="E83">
-        <v>-0.003000777977425671</v>
+        <v>0.02568900930338604</v>
       </c>
       <c r="F83">
-        <v>0.07185562443436951</v>
+        <v>-0.05609721814883317</v>
       </c>
       <c r="G83">
-        <v>0.0390294441623749</v>
+        <v>-0.07583948789654631</v>
       </c>
       <c r="H83">
-        <v>0.07162408287022605</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.02476887282869862</v>
+      </c>
+      <c r="I83">
+        <v>0.06895280080654964</v>
+      </c>
+      <c r="J83">
+        <v>-0.02919489008228745</v>
+      </c>
+      <c r="K83">
+        <v>-0.150564663590097</v>
+      </c>
+      <c r="L83">
+        <v>0.1030905835426074</v>
+      </c>
+      <c r="M83">
+        <v>0.000844767631027749</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.06085720403622628</v>
+        <v>0.06001172019691494</v>
       </c>
       <c r="C84">
-        <v>-0.04674043035066997</v>
+        <v>-0.02392913746705049</v>
       </c>
       <c r="D84">
-        <v>0.0560888804941453</v>
+        <v>0.0007384423872455297</v>
       </c>
       <c r="E84">
-        <v>0.01998129130133554</v>
+        <v>0.00623576311049672</v>
       </c>
       <c r="F84">
-        <v>-0.08148560375624904</v>
+        <v>-0.01128917460420488</v>
       </c>
       <c r="G84">
-        <v>-0.1326558817466618</v>
+        <v>0.1689650130055501</v>
       </c>
       <c r="H84">
-        <v>0.03015198027571473</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.1188795050190731</v>
+      </c>
+      <c r="I84">
+        <v>-0.2098218381710688</v>
+      </c>
+      <c r="J84">
+        <v>-0.1626365410605157</v>
+      </c>
+      <c r="K84">
+        <v>-0.175930125597123</v>
+      </c>
+      <c r="L84">
+        <v>-0.1711322130171321</v>
+      </c>
+      <c r="M84">
+        <v>0.1768008658314685</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.09774705798252568</v>
+        <v>0.112497136828276</v>
       </c>
       <c r="C85">
-        <v>-0.03635898352414973</v>
+        <v>0.05048629479063447</v>
       </c>
       <c r="D85">
-        <v>-0.02822193199899977</v>
+        <v>-0.01790415626608921</v>
       </c>
       <c r="E85">
-        <v>-0.05868363337380021</v>
+        <v>0.03451935841300146</v>
       </c>
       <c r="F85">
-        <v>-0.1793964234292999</v>
+        <v>0.004805111134235553</v>
       </c>
       <c r="G85">
-        <v>0.02269444429917468</v>
+        <v>-0.121830484717535</v>
       </c>
       <c r="H85">
-        <v>0.07688596034425292</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1121762826398105</v>
+      </c>
+      <c r="I85">
+        <v>-0.09853347931574558</v>
+      </c>
+      <c r="J85">
+        <v>0.0967030902208172</v>
+      </c>
+      <c r="K85">
+        <v>0.03720821150536228</v>
+      </c>
+      <c r="L85">
+        <v>0.0247457238534718</v>
+      </c>
+      <c r="M85">
+        <v>-0.0453962448113005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.05316968676137317</v>
+        <v>0.08059316810343423</v>
       </c>
       <c r="C86">
-        <v>-0.0437552203255635</v>
+        <v>0.03876966173036298</v>
       </c>
       <c r="D86">
-        <v>-0.03681409665057966</v>
+        <v>0.006558791903448556</v>
       </c>
       <c r="E86">
-        <v>0.03056715590659142</v>
+        <v>0.1320196352732286</v>
       </c>
       <c r="F86">
-        <v>0.02240261050814144</v>
+        <v>-0.05354986905694602</v>
       </c>
       <c r="G86">
-        <v>0.02607554673609967</v>
+        <v>0.3643437313442048</v>
       </c>
       <c r="H86">
-        <v>-0.08720646850331099</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.3210322526723046</v>
+      </c>
+      <c r="I86">
+        <v>-0.609751079381039</v>
+      </c>
+      <c r="J86">
+        <v>0.3699571255815903</v>
+      </c>
+      <c r="K86">
+        <v>-0.03999093913051829</v>
+      </c>
+      <c r="L86">
+        <v>0.02502413895332154</v>
+      </c>
+      <c r="M86">
+        <v>0.2056792412088516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09428227165211638</v>
+        <v>0.115273731769603</v>
       </c>
       <c r="C87">
-        <v>-0.05272001441146759</v>
+        <v>0.1004089476775639</v>
       </c>
       <c r="D87">
-        <v>-0.006886480363452867</v>
+        <v>0.02259215599378117</v>
       </c>
       <c r="E87">
-        <v>0.06194895980896042</v>
+        <v>-0.00475983686773822</v>
       </c>
       <c r="F87">
-        <v>0.01930930869195531</v>
+        <v>-0.1398682121613208</v>
       </c>
       <c r="G87">
-        <v>0.1257540134033316</v>
+        <v>0.05873631381435108</v>
       </c>
       <c r="H87">
-        <v>0.02112854654472245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.09866289421001974</v>
+      </c>
+      <c r="I87">
+        <v>0.07322089738790936</v>
+      </c>
+      <c r="J87">
+        <v>0.07448167611904362</v>
+      </c>
+      <c r="K87">
+        <v>-0.0255879055783643</v>
+      </c>
+      <c r="L87">
+        <v>0.2779010311660772</v>
+      </c>
+      <c r="M87">
+        <v>-0.1247194575283348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05915275462387892</v>
+        <v>0.05815596809022847</v>
       </c>
       <c r="C88">
-        <v>-0.03906313935673687</v>
+        <v>0.05072730857522566</v>
       </c>
       <c r="D88">
-        <v>-0.02126507855025409</v>
+        <v>-0.03337143220044669</v>
       </c>
       <c r="E88">
-        <v>0.0001826433480476736</v>
+        <v>0.001952406851654623</v>
       </c>
       <c r="F88">
-        <v>0.02017517938827344</v>
+        <v>-0.03848181253459757</v>
       </c>
       <c r="G88">
-        <v>0.03635933074080967</v>
+        <v>-0.0476153391049665</v>
       </c>
       <c r="H88">
-        <v>0.01462560845891514</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01711980368024871</v>
+      </c>
+      <c r="I88">
+        <v>0.009985819425456543</v>
+      </c>
+      <c r="J88">
+        <v>-0.03853165250319382</v>
+      </c>
+      <c r="K88">
+        <v>-0.02948128035179007</v>
+      </c>
+      <c r="L88">
+        <v>-0.05632867864981552</v>
+      </c>
+      <c r="M88">
+        <v>-0.03769858171695778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1309133847593542</v>
+        <v>0.1979846510851859</v>
       </c>
       <c r="C89">
-        <v>0.3495834835647694</v>
+        <v>-0.3685917461190448</v>
       </c>
       <c r="D89">
-        <v>-0.1015264461611053</v>
+        <v>0.0385982210944394</v>
       </c>
       <c r="E89">
-        <v>0.08432845770823202</v>
+        <v>0.05849067032086889</v>
       </c>
       <c r="F89">
-        <v>0.06769218071260727</v>
+        <v>-0.02623168989677562</v>
       </c>
       <c r="G89">
-        <v>0.014731646654128</v>
+        <v>0.0208906786252585</v>
       </c>
       <c r="H89">
-        <v>0.03904674358682903</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.02360038156360547</v>
+      </c>
+      <c r="I89">
+        <v>0.02467634297874878</v>
+      </c>
+      <c r="J89">
+        <v>-0.04928676504571031</v>
+      </c>
+      <c r="K89">
+        <v>-0.04716058612233347</v>
+      </c>
+      <c r="L89">
+        <v>-0.0001556905181210994</v>
+      </c>
+      <c r="M89">
+        <v>-0.03686569301522791</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1025360464375615</v>
+        <v>0.1493838374820552</v>
       </c>
       <c r="C90">
-        <v>0.2776183047886666</v>
+        <v>-0.2705862971114051</v>
       </c>
       <c r="D90">
-        <v>-0.04534084029410718</v>
+        <v>-0.007963143161029798</v>
       </c>
       <c r="E90">
-        <v>0.05866246335337807</v>
+        <v>0.01494858262714588</v>
       </c>
       <c r="F90">
-        <v>0.04829676999262478</v>
+        <v>-0.03180944718532978</v>
       </c>
       <c r="G90">
-        <v>0.09799376476175924</v>
+        <v>-0.01593089593598093</v>
       </c>
       <c r="H90">
-        <v>0.01863618024497677</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06699639454457597</v>
+      </c>
+      <c r="I90">
+        <v>-0.002762025133057069</v>
+      </c>
+      <c r="J90">
+        <v>-0.03457819524041623</v>
+      </c>
+      <c r="K90">
+        <v>0.03566305300294013</v>
+      </c>
+      <c r="L90">
+        <v>-0.01507959196428749</v>
+      </c>
+      <c r="M90">
+        <v>0.02885764271383132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08071595506805017</v>
+        <v>0.08206429087023229</v>
       </c>
       <c r="C91">
-        <v>-0.01641047343504829</v>
+        <v>0.05171469020619648</v>
       </c>
       <c r="D91">
-        <v>-0.01338203343936777</v>
+        <v>0.0009924631608691755</v>
       </c>
       <c r="E91">
-        <v>-0.007808369369003992</v>
+        <v>0.003777427146007404</v>
       </c>
       <c r="F91">
-        <v>-0.09809594141935003</v>
+        <v>0.01776772906538154</v>
       </c>
       <c r="G91">
-        <v>-0.0511968549832365</v>
+        <v>-0.06628785435220888</v>
       </c>
       <c r="H91">
-        <v>0.0341018094350815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.07219251821925041</v>
+      </c>
+      <c r="I91">
+        <v>-0.05320249231063218</v>
+      </c>
+      <c r="J91">
+        <v>0.01933141155796863</v>
+      </c>
+      <c r="K91">
+        <v>0.007791425923439675</v>
+      </c>
+      <c r="L91">
+        <v>-0.01036714962958789</v>
+      </c>
+      <c r="M91">
+        <v>0.002716371835869035</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1084444781525385</v>
+        <v>0.1650780724547184</v>
       </c>
       <c r="C92">
-        <v>0.3195988022018039</v>
+        <v>-0.319393022180004</v>
       </c>
       <c r="D92">
-        <v>-0.07631904601390013</v>
+        <v>0.02964148485706157</v>
       </c>
       <c r="E92">
-        <v>0.04999112096371919</v>
+        <v>0.04039583698543598</v>
       </c>
       <c r="F92">
-        <v>0.003839182573050327</v>
+        <v>-0.04490577590984202</v>
       </c>
       <c r="G92">
-        <v>-0.09270391339553678</v>
+        <v>-0.0231452999540742</v>
       </c>
       <c r="H92">
-        <v>0.01927164645526148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.02865749523404091</v>
+      </c>
+      <c r="I92">
+        <v>-0.0001117759202600994</v>
+      </c>
+      <c r="J92">
+        <v>-0.03785671629602085</v>
+      </c>
+      <c r="K92">
+        <v>-0.0325858050949152</v>
+      </c>
+      <c r="L92">
+        <v>-0.04461815090390809</v>
+      </c>
+      <c r="M92">
+        <v>-0.05489012613031445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1136929927103871</v>
+        <v>0.1560371372217556</v>
       </c>
       <c r="C93">
-        <v>0.2663067934014803</v>
+        <v>-0.2952414860988288</v>
       </c>
       <c r="D93">
-        <v>-0.05055510369144036</v>
+        <v>-0.03097630815609833</v>
       </c>
       <c r="E93">
-        <v>0.02785058482610584</v>
+        <v>-0.001153605693769494</v>
       </c>
       <c r="F93">
-        <v>0.02835535747616199</v>
+        <v>-0.01800920578004602</v>
       </c>
       <c r="G93">
-        <v>0.01219497949201475</v>
+        <v>0.0003324951559890962</v>
       </c>
       <c r="H93">
-        <v>-0.03002087207856323</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.04259557735083259</v>
+      </c>
+      <c r="I93">
+        <v>-0.009776204302705198</v>
+      </c>
+      <c r="J93">
+        <v>0.01944952276133418</v>
+      </c>
+      <c r="K93">
+        <v>-0.02343332037099108</v>
+      </c>
+      <c r="L93">
+        <v>-0.008041203606080493</v>
+      </c>
+      <c r="M93">
+        <v>0.01870602733775531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09707913555693778</v>
+        <v>0.1155282865566417</v>
       </c>
       <c r="C94">
-        <v>-0.05217722878632729</v>
+        <v>0.06825985330135353</v>
       </c>
       <c r="D94">
-        <v>-0.004718790836847881</v>
+        <v>0.01226652457019324</v>
       </c>
       <c r="E94">
-        <v>-0.01493702472905739</v>
+        <v>0.02713055489183894</v>
       </c>
       <c r="F94">
-        <v>-0.1605601678131426</v>
+        <v>0.03584419472299998</v>
       </c>
       <c r="G94">
-        <v>-0.05818726336884467</v>
+        <v>-0.1048036725929959</v>
       </c>
       <c r="H94">
-        <v>0.07256958725166526</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.1081675739092696</v>
+      </c>
+      <c r="I94">
+        <v>-0.05481560400240924</v>
+      </c>
+      <c r="J94">
+        <v>0.02775698171463574</v>
+      </c>
+      <c r="K94">
+        <v>0.01461847252680766</v>
+      </c>
+      <c r="L94">
+        <v>-0.04598791682213456</v>
+      </c>
+      <c r="M94">
+        <v>-0.02507176874978144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1204958048237291</v>
+        <v>0.1193893658609567</v>
       </c>
       <c r="C95">
-        <v>-0.07862619366491301</v>
+        <v>0.07276997583297269</v>
       </c>
       <c r="D95">
-        <v>-0.05911179389833221</v>
+        <v>0.01145923554619683</v>
       </c>
       <c r="E95">
-        <v>0.04608652254752467</v>
+        <v>0.07737629559090467</v>
       </c>
       <c r="F95">
-        <v>0.05903288992810192</v>
+        <v>-0.07968271782134656</v>
       </c>
       <c r="G95">
-        <v>0.04810955586775813</v>
+        <v>0.1618233899995502</v>
       </c>
       <c r="H95">
-        <v>0.1274256017963958</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1923821028541208</v>
+      </c>
+      <c r="I95">
+        <v>-0.0149627373276479</v>
+      </c>
+      <c r="J95">
+        <v>0.07454338660976183</v>
+      </c>
+      <c r="K95">
+        <v>-0.1202994134622774</v>
+      </c>
+      <c r="L95">
+        <v>-0.01923918270438977</v>
+      </c>
+      <c r="M95">
+        <v>-0.5785428379581138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0019084310036264</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.004556931906195049</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001031759784857618</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0004835696459571527</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0004843428063961364</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.01164742539950734</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.01002998431288558</v>
+      </c>
+      <c r="I96">
+        <v>0.006002509779599824</v>
+      </c>
+      <c r="J96">
+        <v>-0.002169822236580063</v>
+      </c>
+      <c r="K96">
+        <v>0.008267258479715439</v>
+      </c>
+      <c r="L96">
+        <v>0.004847824687849761</v>
+      </c>
+      <c r="M96">
+        <v>0.01256116241009986</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2215153693178598</v>
+        <v>0.1631607229308311</v>
       </c>
       <c r="C97">
-        <v>0.121483490405137</v>
+        <v>0.03880568279096384</v>
       </c>
       <c r="D97">
-        <v>0.9034240216075681</v>
+        <v>0.1985962579325906</v>
       </c>
       <c r="E97">
-        <v>-0.03747269452936632</v>
+        <v>-0.9171462228054466</v>
       </c>
       <c r="F97">
-        <v>0.09980508370690871</v>
+        <v>0.02852031953251383</v>
       </c>
       <c r="G97">
-        <v>0.005561826161462349</v>
+        <v>0.1428891524697419</v>
       </c>
       <c r="H97">
-        <v>-0.01978249462858316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.06085560759084217</v>
+      </c>
+      <c r="I97">
+        <v>-0.07348878807974493</v>
+      </c>
+      <c r="J97">
+        <v>-0.06070499486714848</v>
+      </c>
+      <c r="K97">
+        <v>0.007895951039667995</v>
+      </c>
+      <c r="L97">
+        <v>0.02780358220232138</v>
+      </c>
+      <c r="M97">
+        <v>-0.01730069155885585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2941430433089148</v>
+        <v>0.2541973902558464</v>
       </c>
       <c r="C98">
-        <v>-0.0876798311837715</v>
+        <v>0.1043392652631685</v>
       </c>
       <c r="D98">
-        <v>-0.09150685406543456</v>
+        <v>0.01434457028785383</v>
       </c>
       <c r="E98">
-        <v>-0.179481167489817</v>
+        <v>0.03390655347049678</v>
       </c>
       <c r="F98">
-        <v>0.2436389921951797</v>
+        <v>0.3801805822496654</v>
       </c>
       <c r="G98">
-        <v>-0.3269289168927902</v>
+        <v>0.1885829540797922</v>
       </c>
       <c r="H98">
-        <v>-0.2666505457925066</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.03650619646615213</v>
+      </c>
+      <c r="I98">
+        <v>0.2420003627610237</v>
+      </c>
+      <c r="J98">
+        <v>-0.1303608701655266</v>
+      </c>
+      <c r="K98">
+        <v>-0.5156657467891443</v>
+      </c>
+      <c r="L98">
+        <v>0.2475504670994939</v>
+      </c>
+      <c r="M98">
+        <v>0.04567711089381279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.07357845290238402</v>
+        <v>0.06526357460539038</v>
       </c>
       <c r="C99">
-        <v>-0.04999177991957551</v>
+        <v>0.03961759572194561</v>
       </c>
       <c r="D99">
-        <v>-0.02717418169154595</v>
+        <v>-0.004337903335786483</v>
       </c>
       <c r="E99">
-        <v>-0.008624718009534182</v>
+        <v>0.04436424741939993</v>
       </c>
       <c r="F99">
-        <v>-0.01548605518947922</v>
+        <v>0.01250618767493638</v>
       </c>
       <c r="G99">
-        <v>0.04452806676287122</v>
+        <v>-0.03078141055167139</v>
       </c>
       <c r="H99">
-        <v>0.008232640469180768</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02585395945274596</v>
+      </c>
+      <c r="I99">
+        <v>-0.001690730456546653</v>
+      </c>
+      <c r="J99">
+        <v>-0.0247175069380658</v>
+      </c>
+      <c r="K99">
+        <v>0.03563335453523205</v>
+      </c>
+      <c r="L99">
+        <v>0.01694043569263709</v>
+      </c>
+      <c r="M99">
+        <v>-0.02869167589828884</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0005447546547058429</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.01320443226174175</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.0007270855162094445</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.05134664634905654</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.02844804113269492</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.0360533395237369</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.02517150617771455</v>
+      </c>
+      <c r="I100">
+        <v>0.01128593816994785</v>
+      </c>
+      <c r="J100">
+        <v>0.003616373889258533</v>
+      </c>
+      <c r="K100">
+        <v>-0.0602851519926537</v>
+      </c>
+      <c r="L100">
+        <v>0.004172561297621931</v>
+      </c>
+      <c r="M100">
+        <v>-0.01566040934885551</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05476993162462417</v>
+        <v>0.03852491023717745</v>
       </c>
       <c r="C101">
-        <v>-0.0156233643342962</v>
+        <v>0.02278033862951001</v>
       </c>
       <c r="D101">
-        <v>-0.00869125483574351</v>
+        <v>-0.008908791958336767</v>
       </c>
       <c r="E101">
-        <v>0.03101832781344365</v>
+        <v>0.007383630696946027</v>
       </c>
       <c r="F101">
-        <v>-0.01792801598726422</v>
+        <v>-0.07007955691524355</v>
       </c>
       <c r="G101">
-        <v>-0.009375762726109996</v>
+        <v>-0.03015854052257778</v>
       </c>
       <c r="H101">
-        <v>-0.0159445621868499</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.007177743403220698</v>
+      </c>
+      <c r="I101">
+        <v>0.01496803815796149</v>
+      </c>
+      <c r="J101">
+        <v>0.02314559155208314</v>
+      </c>
+      <c r="K101">
+        <v>-0.0902441552780836</v>
+      </c>
+      <c r="L101">
+        <v>-0.02780981619462641</v>
+      </c>
+      <c r="M101">
+        <v>0.00223744131976904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
